--- a/biology/Botanique/Griselinia/Griselinia.xlsx
+++ b/biology/Botanique/Griselinia/Griselinia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Griselinia regroupe des plantes dicotylédones de la famille des Cornaceae ou des Griseliniaceae selon les classifications.
 Ce sont des petits arbres ou des arbustes grimpants, parfois épiphytes, des régions tempérées de l'hémisphère sud, originaires de Nouvelle-Zélande et du sud de l'Amérique du Sud.
